--- a/Files/intrinsicValueCalculator.xlsx
+++ b/Files/intrinsicValueCalculator.xlsx
@@ -5,10 +5,10 @@
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jburkhow\Google Drive\Documents\GitHub\rule_one\Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jburkhow\Google Drive\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DC16318-32EC-44CD-99D8-AAF35578B8A2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{08036552-8321-4F08-B340-BD3C6A820A8F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="790" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
     <workbookView xWindow="0" yWindow="90" windowWidth="22965" windowHeight="8205" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF01000000}"/>
